--- a/수정리스트_20160712.xlsx
+++ b/수정리스트_20160712.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,11 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>링크기능(text 입력시 URL 입력후 등록시 URL 영역이 링크되도록 하는 기능)
-이미지 클릭시 크게 이미지 보여줄 팝업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공지대상 팝업 체크박스 항목추가(현장소장, 공사팀장, 안전관리자)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,6 +257,25 @@
   <si>
     <t>피드백 대기</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 클릭시 크게 이미지 보여줄 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크기능(text 입력시 URL 입력후 등록시 URL 영역이 링크되도록 하는 기능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.07.07</t>
   </si>
 </sst>
 </file>
@@ -383,7 +397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -466,6 +480,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -767,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -924,25 +941,25 @@
       </c>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:8" s="8" customFormat="1">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:8" s="5" customFormat="1">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="18">
-        <v>2</v>
-      </c>
-      <c r="H8" s="14"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" s="8" customFormat="1">
       <c r="A9" s="14" t="s">
@@ -967,10 +984,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" ht="19.5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="8" customFormat="1">
       <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
@@ -979,10 +996,10 @@
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="15" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>22</v>
@@ -994,20 +1011,18 @@
     </row>
     <row r="11" spans="1:8" s="8" customFormat="1">
       <c r="A11" s="14" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>9</v>
-      </c>
+      <c r="D11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G11" s="19">
         <v>1</v>
@@ -1023,153 +1038,175 @@
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="19">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" s="8" customFormat="1">
+      <c r="A13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14" t="s">
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="8.25" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" ht="8.25" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="22" t="s">
+      <c r="B15" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23" t="s">
+      <c r="E15" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="24" t="s">
+    </row>
+    <row r="16" spans="1:8" s="8" customFormat="1">
+      <c r="A16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="14">
+        <v>2</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="5" customFormat="1">
+      <c r="A17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="8" customFormat="1">
-      <c r="A15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="14">
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" s="9" customFormat="1">
+      <c r="A18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="14">
         <v>2</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="5" customFormat="1">
-      <c r="A16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12" t="s">
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="1:8" s="8" customFormat="1" ht="19.5">
+      <c r="A19" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" s="9" customFormat="1">
-      <c r="A17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25" t="s">
+      <c r="B19" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="14">
-        <v>2</v>
-      </c>
-      <c r="H17" s="25"/>
-    </row>
-    <row r="18" spans="1:8" s="8" customFormat="1" ht="19.5">
-      <c r="A18" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="16">
-        <v>1</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="8" customFormat="1" ht="33" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>54</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="F19" s="14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G19" s="16">
         <v>1</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="8" customFormat="1" ht="33" customHeight="1">
+      <c r="A20" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="16">
+        <v>1</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
